--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>44700</v>
+        <v>46400</v>
       </c>
       <c r="E8" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F8" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="G8" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="E9" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F9" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="G9" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="E10" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="F10" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="G10" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -817,13 +817,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="E17" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F17" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="G17" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="E18" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F18" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G18" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="E21" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="F21" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="G21" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1101,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="E23" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="G23" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1130,13 +1130,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1188,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E26" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F26" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G26" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E27" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F27" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G27" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E33" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F33" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G33" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E35" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F35" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="E41" s="3">
-        <v>19300</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="E43" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24800</v>
+        <v>25800</v>
       </c>
       <c r="E46" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="E49" s="3">
-        <v>54200</v>
+        <v>56200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78900</v>
+        <v>81800</v>
       </c>
       <c r="E54" s="3">
-        <v>84900</v>
+        <v>88100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="E60" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2086,10 +2086,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E61" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="E66" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="E72" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="E76" s="3">
-        <v>49500</v>
+        <v>51400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E81" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F81" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G81" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2639,13 +2639,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -2813,16 +2813,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="E89" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F89" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="G89" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2942,16 +2942,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17700</v>
+        <v>-18400</v>
       </c>
       <c r="E94" s="3">
         <v>-900</v>
       </c>
       <c r="F94" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3100,13 +3100,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="E100" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F100" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>46400</v>
+        <v>48600</v>
       </c>
       <c r="E8" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="F8" s="3">
-        <v>32700</v>
+        <v>34300</v>
       </c>
       <c r="G8" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="E9" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F9" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="G9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="E10" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="F10" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="G10" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="E17" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F17" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="G17" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="E18" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F18" s="3">
-        <v>14600</v>
+        <v>15300</v>
       </c>
       <c r="G18" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="E21" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F21" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="G21" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="E23" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="F23" s="3">
-        <v>14100</v>
+        <v>14800</v>
       </c>
       <c r="G23" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1188,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E26" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F26" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G26" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E27" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F27" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E33" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F33" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E35" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F35" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="E41" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6200</v>
+        <v>5500</v>
       </c>
       <c r="E43" s="3">
-        <v>10600</v>
+        <v>9100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1654,10 +1654,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="E46" s="3">
-        <v>31100</v>
+        <v>32600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="E49" s="3">
-        <v>56200</v>
+        <v>58900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81800</v>
+        <v>85700</v>
       </c>
       <c r="E54" s="3">
-        <v>88100</v>
+        <v>92300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>1500</v>
       </c>
       <c r="E59" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="E60" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2086,10 +2086,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="E66" s="3">
-        <v>36700</v>
+        <v>38400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36500</v>
+        <v>38200</v>
       </c>
       <c r="E72" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61400</v>
+        <v>64300</v>
       </c>
       <c r="E76" s="3">
-        <v>51400</v>
+        <v>53800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E81" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F81" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2639,13 +2639,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -2813,16 +2813,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="E89" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="F89" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="G89" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2942,16 +2942,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18400</v>
+        <v>-19200</v>
       </c>
       <c r="E94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F94" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3100,13 +3100,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="F100" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F102" s="3">
-        <v>20200</v>
+        <v>21200</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48600</v>
+        <v>48800</v>
       </c>
       <c r="E8" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="F8" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="G8" s="3">
         <v>7500</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="E9" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F9" s="3">
         <v>13000</v>
       </c>
       <c r="G9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="E10" s="3">
         <v>8500</v>
       </c>
       <c r="F10" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="G10" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -826,7 +826,7 @@
         <v>1200</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="E17" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F17" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="G17" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -978,10 +978,10 @@
         <v>6400</v>
       </c>
       <c r="F18" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G18" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1043,13 +1043,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="3">
         <v>7000</v>
       </c>
       <c r="F21" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="G21" s="3">
         <v>4300</v>
@@ -1101,13 +1101,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="E23" s="3">
         <v>6300</v>
       </c>
       <c r="F23" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="G23" s="3">
         <v>3600</v>
@@ -1188,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E26" s="3">
         <v>5700</v>
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E27" s="3">
         <v>5700</v>
@@ -1391,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E33" s="3">
         <v>5700</v>
@@ -1449,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E35" s="3">
         <v>5700</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="E41" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1599,7 +1599,7 @@
         <v>5500</v>
       </c>
       <c r="E43" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="E46" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="E49" s="3">
-        <v>58900</v>
+        <v>59200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85700</v>
+        <v>86100</v>
       </c>
       <c r="E54" s="3">
-        <v>92300</v>
+        <v>92700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
         <v>5600</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,7 +2057,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="E60" s="3">
         <v>8400</v>
@@ -2086,10 +2086,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="E66" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="E72" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64300</v>
+        <v>64600</v>
       </c>
       <c r="E76" s="3">
-        <v>53800</v>
+        <v>54000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E81" s="3">
         <v>5700</v>
@@ -2648,7 +2648,7 @@
         <v>2100</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2813,13 +2813,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="E89" s="3">
         <v>5500</v>
       </c>
       <c r="F89" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G89" s="3">
         <v>3200</v>
@@ -2942,13 +2942,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
       </c>
       <c r="F94" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="G94" s="3">
         <v>-3800</v>
@@ -3100,13 +3100,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F100" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>-2200</v>
       </c>
       <c r="F102" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>WIMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,25 +712,28 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48800</v>
+        <v>80800</v>
       </c>
       <c r="E8" s="3">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="3">
-        <v>34400</v>
+        <v>12300</v>
       </c>
       <c r="G8" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>35300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>22300</v>
+        <v>56900</v>
       </c>
       <c r="E9" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
-        <v>13000</v>
-      </c>
       <c r="G9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,25 +776,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26400</v>
+        <v>24000</v>
       </c>
       <c r="E10" s="3">
-        <v>8500</v>
+        <v>27100</v>
       </c>
       <c r="F10" s="3">
-        <v>21400</v>
+        <v>8800</v>
       </c>
       <c r="G10" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2800</v>
+        <v>13500</v>
       </c>
       <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>1200</v>
-      </c>
       <c r="G12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,25 +963,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31500</v>
+        <v>76900</v>
       </c>
       <c r="E17" s="3">
-        <v>5600</v>
+        <v>32300</v>
       </c>
       <c r="F17" s="3">
-        <v>19000</v>
+        <v>5700</v>
       </c>
       <c r="G17" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17200</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="3">
-        <v>6400</v>
+        <v>17700</v>
       </c>
       <c r="F18" s="3">
-        <v>15400</v>
+        <v>6600</v>
       </c>
       <c r="G18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H18" s="3">
         <v>3900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1041,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,25 +1071,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>17700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1066,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,25 +1135,28 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16100</v>
+        <v>4900</v>
       </c>
       <c r="E23" s="3">
-        <v>6300</v>
+        <v>16500</v>
       </c>
       <c r="F23" s="3">
-        <v>14900</v>
+        <v>6500</v>
       </c>
       <c r="G23" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>15200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1124,26 +1167,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
-        <v>1200</v>
-      </c>
       <c r="G24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,25 +1231,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="F26" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="G26" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1211,25 +1263,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15600</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="3">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="G27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1423,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,25 +1455,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15600</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="3">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="F33" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="G33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,25 +1519,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15600</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="3">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="F35" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="G35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1618,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>19700</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>21000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>21500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,19 +1680,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5500</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,19 +1744,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>2600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,19 +1776,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27100</v>
+        <v>175800</v>
       </c>
       <c r="E46" s="3">
-        <v>32700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>33500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,20 +1808,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,19 +1872,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>58000</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>59200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>59400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>60600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86100</v>
+        <v>287500</v>
       </c>
       <c r="E54" s="3">
-        <v>92700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>88200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>94900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,19 +2094,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>6300</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,19 +2124,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>10800</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1600</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>18700</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,19 +2220,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
-        <v>29700</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21500</v>
+        <v>32100</v>
       </c>
       <c r="E66" s="3">
-        <v>38600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>39600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,19 +2554,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>38400</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>28500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>39400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>29200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2682,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64600</v>
+        <v>255400</v>
       </c>
       <c r="E76" s="3">
-        <v>54000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>66200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>55400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,25 +2783,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15600</v>
+        <v>1100</v>
       </c>
       <c r="E81" s="3">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="F81" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="G81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,23 +2831,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
-        <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,22 +3021,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>22000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>15200</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>3200</v>
+        <v>15600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,19 +3069,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,22 +3163,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-15100</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-3800</v>
+        <v>-15400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,22 +3337,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>21000</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3123,23 +3369,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,22 +3401,25 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>21300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>-600</v>
+        <v>21800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>WIMI</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80800</v>
+        <v>81400</v>
       </c>
       <c r="E8" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="F8" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="G8" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="H8" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -753,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="E9" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="F9" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G9" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="H9" s="3">
         <v>2500</v>
@@ -785,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="E10" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="F10" s="3">
         <v>8800</v>
       </c>
       <c r="G10" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="H10" s="3">
         <v>5200</v>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="E12" s="3">
         <v>2900</v>
@@ -970,16 +970,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>76900</v>
+        <v>77400</v>
       </c>
       <c r="E17" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="F17" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G17" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="H17" s="3">
         <v>3800</v>
@@ -1005,16 +1005,16 @@
         <v>4000</v>
       </c>
       <c r="E18" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="F18" s="3">
         <v>6600</v>
       </c>
       <c r="G18" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="H18" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,11 +1114,11 @@
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
@@ -1147,13 +1147,13 @@
         <v>4900</v>
       </c>
       <c r="E23" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="F23" s="3">
         <v>6500</v>
       </c>
       <c r="G23" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="H23" s="3">
         <v>3700</v>
@@ -1240,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E26" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F26" s="3">
         <v>5900</v>
       </c>
       <c r="G26" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H26" s="3">
         <v>3500</v>
@@ -1275,13 +1275,13 @@
         <v>1100</v>
       </c>
       <c r="E27" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F27" s="3">
         <v>5900</v>
       </c>
       <c r="G27" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H27" s="3">
         <v>3500</v>
@@ -1435,13 +1435,13 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>1100</v>
       </c>
       <c r="E33" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F33" s="3">
         <v>5900</v>
       </c>
       <c r="G33" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H33" s="3">
         <v>3500</v>
@@ -1531,13 +1531,13 @@
         <v>1100</v>
       </c>
       <c r="E35" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F35" s="3">
         <v>5900</v>
       </c>
       <c r="G35" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H35" s="3">
         <v>3500</v>
@@ -1628,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="F41" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1695,7 +1695,7 @@
         <v>5700</v>
       </c>
       <c r="F43" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>175800</v>
+        <v>177100</v>
       </c>
       <c r="E45" s="3">
         <v>1900</v>
@@ -1785,13 +1785,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>175800</v>
+        <v>177100</v>
       </c>
       <c r="E46" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="F46" s="3">
-        <v>33500</v>
+        <v>33800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>59400</v>
+        <v>59900</v>
       </c>
       <c r="F49" s="3">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111700</v>
+        <v>112600</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2041,13 +2041,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>287500</v>
+        <v>289700</v>
       </c>
       <c r="E54" s="3">
-        <v>88200</v>
+        <v>88900</v>
       </c>
       <c r="F54" s="3">
-        <v>94900</v>
+        <v>95700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F59" s="3">
         <v>2800</v>
@@ -2200,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="F60" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2235,7 +2235,7 @@
         <v>2500</v>
       </c>
       <c r="F61" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2389,13 +2389,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="E66" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="F66" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2566,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="F72" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2691,13 +2691,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>255400</v>
+        <v>257400</v>
       </c>
       <c r="E76" s="3">
-        <v>66200</v>
+        <v>66700</v>
       </c>
       <c r="F76" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2795,13 +2795,13 @@
         <v>1100</v>
       </c>
       <c r="E81" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F81" s="3">
         <v>5900</v>
       </c>
       <c r="G81" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H81" s="3">
         <v>3500</v>
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>WIMI</t>
   </si>
@@ -665,12 +665,12 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -692,19 +692,19 @@
         <v>44377</v>
       </c>
       <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>81400</v>
+        <v>76100</v>
       </c>
       <c r="E8" s="3">
-        <v>50400</v>
+        <v>25200</v>
       </c>
       <c r="F8" s="3">
-        <v>12400</v>
+        <v>47000</v>
       </c>
       <c r="G8" s="3">
-        <v>35500</v>
+        <v>11600</v>
       </c>
       <c r="H8" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>33200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -753,22 +753,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57300</v>
+        <v>53500</v>
       </c>
       <c r="E9" s="3">
-        <v>23100</v>
+        <v>17400</v>
       </c>
       <c r="F9" s="3">
-        <v>3600</v>
+        <v>21500</v>
       </c>
       <c r="G9" s="3">
-        <v>13500</v>
+        <v>3300</v>
       </c>
       <c r="H9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>12600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="E10" s="3">
-        <v>27300</v>
+        <v>7800</v>
       </c>
       <c r="F10" s="3">
-        <v>8800</v>
+        <v>25500</v>
       </c>
       <c r="G10" s="3">
-        <v>22100</v>
+        <v>8200</v>
       </c>
       <c r="H10" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -831,22 +831,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="E12" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>1300</v>
-      </c>
       <c r="H12" s="3">
-        <v>300</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -970,22 +970,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>77400</v>
+        <v>72300</v>
       </c>
       <c r="E17" s="3">
-        <v>32600</v>
+        <v>22100</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>30400</v>
       </c>
       <c r="G17" s="3">
-        <v>19600</v>
+        <v>5400</v>
       </c>
       <c r="H17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
-        <v>17800</v>
+        <v>3100</v>
       </c>
       <c r="F18" s="3">
-        <v>6600</v>
+        <v>16600</v>
       </c>
       <c r="G18" s="3">
-        <v>15900</v>
+        <v>6200</v>
       </c>
       <c r="H18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>14900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1051,19 +1051,19 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1085,17 +1085,17 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>17600</v>
       </c>
       <c r="G21" s="3">
-        <v>18300</v>
+        <v>6600</v>
       </c>
       <c r="H21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1120,14 +1120,14 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1144,22 +1144,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="E23" s="3">
-        <v>16600</v>
+        <v>3500</v>
       </c>
       <c r="F23" s="3">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="G23" s="3">
-        <v>15300</v>
+        <v>6100</v>
       </c>
       <c r="H23" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1179,19 +1179,19 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>1300</v>
-      </c>
       <c r="H24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="E26" s="3">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="F26" s="3">
-        <v>5900</v>
+        <v>15100</v>
       </c>
       <c r="G26" s="3">
-        <v>14100</v>
+        <v>5500</v>
       </c>
       <c r="H26" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1272,22 +1272,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="F27" s="3">
-        <v>5900</v>
+        <v>15100</v>
       </c>
       <c r="G27" s="3">
-        <v>14100</v>
+        <v>5500</v>
       </c>
       <c r="H27" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1435,19 +1435,19 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1464,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="F33" s="3">
-        <v>5900</v>
+        <v>15100</v>
       </c>
       <c r="G33" s="3">
-        <v>14100</v>
+        <v>5500</v>
       </c>
       <c r="H33" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1528,22 +1528,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="F35" s="3">
-        <v>5900</v>
+        <v>15100</v>
       </c>
       <c r="G35" s="3">
-        <v>14100</v>
+        <v>5500</v>
       </c>
       <c r="H35" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1568,19 +1568,19 @@
         <v>44377</v>
       </c>
       <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1628,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>20400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>21700</v>
+        <v>19000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1692,10 +1692,10 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>9500</v>
+        <v>5300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1753,13 +1753,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177100</v>
+        <v>165400</v>
       </c>
       <c r="E45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2600</v>
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177100</v>
+        <v>165400</v>
       </c>
       <c r="E46" s="3">
-        <v>28000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>33800</v>
+        <v>26200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1820,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>500</v>
+        <v>600</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1854,8 +1854,8 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>200</v>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>59900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>61100</v>
+        <v>55900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1977,13 +1977,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112600</v>
+        <v>105200</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2041,13 +2041,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>289700</v>
+        <v>270600</v>
       </c>
       <c r="E54" s="3">
-        <v>88900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>95700</v>
+        <v>83000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2104,10 +2104,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5800</v>
+        <v>5700</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>10500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2168,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2800</v>
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2200,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>19300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8700</v>
+        <v>18000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F61" s="3">
-        <v>30600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2266,8 +2266,8 @@
       <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>600</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32300</v>
+        <v>30200</v>
       </c>
       <c r="E66" s="3">
-        <v>22200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>39900</v>
+        <v>20700</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2566,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>39700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>29400</v>
+        <v>37000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2691,13 +2691,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>257400</v>
+        <v>240400</v>
       </c>
       <c r="E76" s="3">
-        <v>66700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>55800</v>
+        <v>62300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2763,19 +2763,19 @@
         <v>44377</v>
       </c>
       <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2792,22 +2792,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="F81" s="3">
-        <v>5900</v>
+        <v>15100</v>
       </c>
       <c r="G81" s="3">
-        <v>14100</v>
+        <v>5500</v>
       </c>
       <c r="H81" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2843,11 +2843,11 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3035,11 +3035,11 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>21200</v>
       </c>
       <c r="G89" s="3">
-        <v>15700</v>
+        <v>5300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3081,8 +3081,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3177,11 +3177,11 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>-18600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15600</v>
+        <v>-900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3351,11 +3351,11 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>-6000</v>
       </c>
       <c r="G100" s="3">
-        <v>21700</v>
+        <v>-6600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3383,11 +3383,11 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3415,11 +3415,11 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>-3400</v>
       </c>
       <c r="G102" s="3">
-        <v>22000</v>
+        <v>-2100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>WIMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>76100</v>
+        <v>61000</v>
       </c>
       <c r="E8" s="3">
-        <v>25200</v>
+        <v>75400</v>
       </c>
       <c r="F8" s="3">
-        <v>47000</v>
+        <v>86900</v>
       </c>
       <c r="G8" s="3">
-        <v>11600</v>
+        <v>24900</v>
       </c>
       <c r="H8" s="3">
-        <v>33200</v>
+        <v>46600</v>
       </c>
       <c r="I8" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>32900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -747,31 +752,34 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53500</v>
+        <v>46900</v>
       </c>
       <c r="E9" s="3">
-        <v>17400</v>
+        <v>53000</v>
       </c>
       <c r="F9" s="3">
-        <v>21500</v>
+        <v>69900</v>
       </c>
       <c r="G9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="H9" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>12500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -779,31 +787,34 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22500</v>
+        <v>14100</v>
       </c>
       <c r="E10" s="3">
-        <v>7800</v>
+        <v>22300</v>
       </c>
       <c r="F10" s="3">
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="G10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="I10" s="3">
         <v>8200</v>
       </c>
-      <c r="H10" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>20400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -811,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,31 +839,32 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12700</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>2300</v>
+        <v>12600</v>
       </c>
       <c r="F12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H12" s="3">
         <v>2700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>1200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -857,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +907,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>18500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -921,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72300</v>
+        <v>102300</v>
       </c>
       <c r="E17" s="3">
-        <v>22100</v>
+        <v>71700</v>
       </c>
       <c r="F17" s="3">
-        <v>30400</v>
+        <v>112400</v>
       </c>
       <c r="G17" s="3">
-        <v>5400</v>
+        <v>21900</v>
       </c>
       <c r="H17" s="3">
-        <v>18300</v>
+        <v>30100</v>
       </c>
       <c r="I17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6200</v>
-      </c>
       <c r="H18" s="3">
-        <v>14900</v>
+        <v>16500</v>
       </c>
       <c r="I18" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>14700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1085,20 +1123,20 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6600</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I21" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1123,14 +1164,14 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1138,31 +1179,34 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3">
-        <v>15500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6100</v>
-      </c>
       <c r="H23" s="3">
-        <v>14300</v>
+        <v>15400</v>
       </c>
       <c r="I23" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>14200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,40 +1214,46 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
-        <v>3400</v>
-      </c>
       <c r="F26" s="3">
-        <v>15100</v>
+        <v>-24500</v>
       </c>
       <c r="G26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>13000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
-        <v>3400</v>
-      </c>
       <c r="F27" s="3">
-        <v>15100</v>
+        <v>-25400</v>
       </c>
       <c r="G27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>13000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,63 +1494,69 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
-        <v>3400</v>
-      </c>
       <c r="F33" s="3">
-        <v>15100</v>
+        <v>-25400</v>
       </c>
       <c r="G33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>13000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
-        <v>3400</v>
-      </c>
       <c r="F35" s="3">
-        <v>15100</v>
+        <v>-25400</v>
       </c>
       <c r="G35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>13000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,16 +1706,17 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
-        <v>19000</v>
+      <c r="D41" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1651,31 +1739,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1683,16 +1774,19 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5300</v>
+      <c r="D43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1715,31 +1809,34 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1747,16 +1844,19 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165400</v>
+        <v>5200</v>
       </c>
       <c r="E45" s="3">
-        <v>1800</v>
+        <v>163900</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1779,16 +1879,19 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>165400</v>
+        <v>132600</v>
       </c>
       <c r="E46" s="3">
-        <v>26200</v>
+        <v>163900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1914,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>600</v>
+      <c r="D47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1843,16 +1949,19 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
+      <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1875,16 +1984,19 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3">
-        <v>55900</v>
+      <c r="D49" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,16 +2089,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105200</v>
+        <v>21600</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>104200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,16 +2159,19 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>270600</v>
+        <v>219800</v>
       </c>
       <c r="E54" s="3">
-        <v>83000</v>
+        <v>268200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,16 +2226,17 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5700</v>
+      <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2127,16 +2259,19 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10500</v>
+      <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2159,16 +2294,19 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1800</v>
+      <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2191,16 +2329,19 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3">
-        <v>18000</v>
+      <c r="D60" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2223,16 +2364,19 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2255,16 +2399,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>29900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,16 +2539,19 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30200</v>
+        <v>35200</v>
       </c>
       <c r="E66" s="3">
-        <v>20700</v>
+        <v>29900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,16 +2729,19 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3">
-        <v>37000</v>
+      <c r="D72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,16 +2869,19 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>240400</v>
+        <v>184600</v>
       </c>
       <c r="E76" s="3">
-        <v>62300</v>
+        <v>238200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
-        <v>3400</v>
-      </c>
       <c r="F81" s="3">
-        <v>15100</v>
+        <v>-25400</v>
       </c>
       <c r="G81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>13000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,31 +3031,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3239,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>21200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,16 +3291,17 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3087,14 +3309,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,31 +3394,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-18600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,31 +3584,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3372,31 +3619,34 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3404,36 +3654,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="E8" s="3">
-        <v>75400</v>
+        <v>71900</v>
       </c>
       <c r="F8" s="3">
-        <v>86900</v>
+        <v>82900</v>
       </c>
       <c r="G8" s="3">
-        <v>24900</v>
+        <v>23800</v>
       </c>
       <c r="H8" s="3">
-        <v>46600</v>
+        <v>44400</v>
       </c>
       <c r="I8" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J8" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -761,25 +761,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>46900</v>
+        <v>44700</v>
       </c>
       <c r="E9" s="3">
-        <v>53000</v>
+        <v>50600</v>
       </c>
       <c r="F9" s="3">
-        <v>69900</v>
+        <v>66600</v>
       </c>
       <c r="G9" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="H9" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="I9" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J9" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -796,25 +796,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="F10" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="G10" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H10" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="I10" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="J10" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -846,25 +846,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="E12" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="F12" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H12" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18500</v>
+        <v>17600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="E17" s="3">
-        <v>71700</v>
+        <v>68300</v>
       </c>
       <c r="F17" s="3">
-        <v>112400</v>
+        <v>107100</v>
       </c>
       <c r="G17" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="H17" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="I17" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J17" s="3">
-        <v>18200</v>
+        <v>17300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-41400</v>
+        <v>-39400</v>
       </c>
       <c r="E18" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F18" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="G18" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="I18" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J18" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1083,19 +1083,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1130,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="I21" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="J21" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41800</v>
+        <v>-39900</v>
       </c>
       <c r="E23" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F23" s="3">
-        <v>-24200</v>
+        <v>-23100</v>
       </c>
       <c r="G23" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H23" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="I23" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J23" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1235,13 +1235,13 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>600</v>
-      </c>
       <c r="J24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41800</v>
+        <v>-39900</v>
       </c>
       <c r="E26" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F26" s="3">
-        <v>-24500</v>
+        <v>-23400</v>
       </c>
       <c r="G26" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H26" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I26" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J26" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="G27" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H27" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I27" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J27" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1503,19 +1503,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="G33" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H33" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I33" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J33" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="G35" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H35" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I35" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J35" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1713,7 +1713,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109800</v>
+        <v>104700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1748,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1853,10 +1853,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
-        <v>163900</v>
+        <v>156300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1888,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>132600</v>
+        <v>126400</v>
       </c>
       <c r="E46" s="3">
-        <v>163900</v>
+        <v>156300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1923,7 +1923,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2098,10 +2098,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="E52" s="3">
-        <v>104200</v>
+        <v>99400</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2168,10 +2168,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>219800</v>
+        <v>209500</v>
       </c>
       <c r="E54" s="3">
-        <v>268200</v>
+        <v>255600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2233,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2268,7 +2268,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2338,7 +2338,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2373,7 +2373,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2548,10 +2548,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35200</v>
+        <v>33500</v>
       </c>
       <c r="E66" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2738,7 +2738,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19800</v>
+        <v>-18900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2878,10 +2878,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184600</v>
+        <v>176000</v>
       </c>
       <c r="E76" s="3">
-        <v>238200</v>
+        <v>227100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="G81" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H81" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I81" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J81" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>58100</v>
+        <v>60000</v>
       </c>
       <c r="E8" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="F8" s="3">
-        <v>82900</v>
+        <v>85500</v>
       </c>
       <c r="G8" s="3">
-        <v>23800</v>
+        <v>24500</v>
       </c>
       <c r="H8" s="3">
-        <v>44400</v>
+        <v>45800</v>
       </c>
       <c r="I8" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="J8" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -761,25 +761,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44700</v>
+        <v>46100</v>
       </c>
       <c r="E9" s="3">
-        <v>50600</v>
+        <v>52200</v>
       </c>
       <c r="F9" s="3">
-        <v>66600</v>
+        <v>68700</v>
       </c>
       <c r="G9" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="H9" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="I9" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J9" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -796,25 +796,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="E10" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="F10" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="G10" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H10" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="I10" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J10" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -846,16 +846,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H12" s="3">
         <v>2600</v>
@@ -864,7 +864,7 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>97500</v>
+        <v>100600</v>
       </c>
       <c r="E17" s="3">
-        <v>68300</v>
+        <v>70500</v>
       </c>
       <c r="F17" s="3">
-        <v>107100</v>
+        <v>110600</v>
       </c>
       <c r="G17" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="H17" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="I17" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J17" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39400</v>
+        <v>-40700</v>
       </c>
       <c r="E18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H18" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I18" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J18" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1083,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>800</v>
@@ -1095,7 +1095,7 @@
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1130,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I21" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="J21" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39900</v>
+        <v>-41100</v>
       </c>
       <c r="E23" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F23" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="G23" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="I23" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J23" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1238,10 +1238,10 @@
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-39900</v>
+        <v>-41100</v>
       </c>
       <c r="E26" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F26" s="3">
-        <v>-23400</v>
+        <v>-24100</v>
       </c>
       <c r="G26" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H26" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I26" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J26" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33800</v>
+        <v>-34900</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H27" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I27" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J27" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1503,7 +1503,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>-800</v>
@@ -1515,7 +1515,7 @@
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33800</v>
+        <v>-34900</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I33" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J33" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33800</v>
+        <v>-34900</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I35" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J35" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1713,7 +1713,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104700</v>
+        <v>108000</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1748,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1853,10 +1853,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E45" s="3">
-        <v>156300</v>
+        <v>161200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1888,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>126400</v>
+        <v>130400</v>
       </c>
       <c r="E46" s="3">
-        <v>156300</v>
+        <v>161200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1923,7 +1923,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42400</v>
+        <v>43800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2098,10 +2098,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="E52" s="3">
-        <v>99400</v>
+        <v>102500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2168,10 +2168,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>209500</v>
+        <v>216200</v>
       </c>
       <c r="E54" s="3">
-        <v>255600</v>
+        <v>263700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2233,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2268,7 +2268,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2338,7 +2338,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2373,7 +2373,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2548,10 +2548,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="E66" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2738,7 +2738,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18900</v>
+        <v>-19500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2878,10 +2878,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>176000</v>
+        <v>181500</v>
       </c>
       <c r="E76" s="3">
-        <v>227100</v>
+        <v>234300</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33800</v>
+        <v>-34900</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H81" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I81" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J81" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>WIMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,163 +670,189 @@
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>60000</v>
+        <v>35300</v>
       </c>
       <c r="E8" s="3">
-        <v>74100</v>
+        <v>61700</v>
       </c>
       <c r="F8" s="3">
-        <v>85500</v>
+        <v>59300</v>
       </c>
       <c r="G8" s="3">
-        <v>24500</v>
+        <v>73400</v>
       </c>
       <c r="H8" s="3">
-        <v>45800</v>
+        <v>84600</v>
       </c>
       <c r="I8" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K8" s="3">
         <v>11300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>32400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>46100</v>
+        <v>26900</v>
       </c>
       <c r="E9" s="3">
-        <v>52200</v>
+        <v>49800</v>
       </c>
       <c r="F9" s="3">
-        <v>68700</v>
+        <v>45600</v>
       </c>
       <c r="G9" s="3">
-        <v>17000</v>
+        <v>51600</v>
       </c>
       <c r="H9" s="3">
-        <v>21000</v>
+        <v>68000</v>
       </c>
       <c r="I9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13900</v>
+        <v>8400</v>
       </c>
       <c r="E10" s="3">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="3">
-        <v>16800</v>
+        <v>13700</v>
       </c>
       <c r="G10" s="3">
-        <v>7600</v>
+        <v>21800</v>
       </c>
       <c r="H10" s="3">
-        <v>24900</v>
+        <v>16600</v>
       </c>
       <c r="I10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
-        <v>12400</v>
-      </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,19 +944,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18200</v>
+        <v>5700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>18000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -936,17 +976,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1044,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100600</v>
+        <v>75900</v>
       </c>
       <c r="E17" s="3">
-        <v>70500</v>
+        <v>63700</v>
       </c>
       <c r="F17" s="3">
-        <v>110600</v>
+        <v>99600</v>
       </c>
       <c r="G17" s="3">
-        <v>21500</v>
+        <v>69800</v>
       </c>
       <c r="H17" s="3">
-        <v>29600</v>
+        <v>109400</v>
       </c>
       <c r="I17" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>17900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1096,40 @@
         <v>-40700</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>14500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1143,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="D21" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K21" s="3">
         <v>6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,90 +1250,108 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41100</v>
+        <v>-49100</v>
       </c>
       <c r="E23" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="F23" s="3">
-        <v>-23800</v>
+        <v>-40700</v>
       </c>
       <c r="G23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41100</v>
+        <v>-48700</v>
       </c>
       <c r="E26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34900</v>
+        <v>-45200</v>
       </c>
       <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34900</v>
+        <v>-45200</v>
       </c>
       <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34900</v>
+        <v>-45200</v>
       </c>
       <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,19 +1879,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>106900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1742,20 +1916,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="3">
         <v>4800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,28 +1948,34 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1812,20 +1998,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1838,17 +2030,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1856,13 +2054,13 @@
         <v>5100</v>
       </c>
       <c r="E45" s="3">
-        <v>161200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>6300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>159600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1882,22 +2080,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>130400</v>
+        <v>95200</v>
       </c>
       <c r="E46" s="3">
-        <v>161200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>119700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>129000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>159600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1917,19 +2121,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>16500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1952,19 +2162,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>4000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1987,19 +2203,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>35500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2326,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="E52" s="3">
-        <v>102500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>101500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,22 +2408,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216200</v>
+        <v>179200</v>
       </c>
       <c r="E54" s="3">
-        <v>263700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>211400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>213900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>261000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,19 +2487,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2262,19 +2524,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2297,20 +2565,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,19 +2606,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13200</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>13000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2367,19 +2647,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2402,22 +2688,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>29400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>29100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2852,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34600</v>
+        <v>29700</v>
       </c>
       <c r="E66" s="3">
-        <v>29400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>31600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>29100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,19 +3074,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-70200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3238,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>181500</v>
+        <v>149500</v>
       </c>
       <c r="E76" s="3">
-        <v>234300</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>179800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>179700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>231900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34900</v>
+        <v>-45200</v>
       </c>
       <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3428,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-33000</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,22 +3732,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-167700</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3318,17 +3760,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-8800</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+        <v>-25000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-9800</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>82100</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-18900</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>55900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="E8" s="3">
-        <v>61700</v>
+        <v>59800</v>
       </c>
       <c r="F8" s="3">
-        <v>59300</v>
+        <v>57500</v>
       </c>
       <c r="G8" s="3">
-        <v>73400</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="3">
-        <v>84600</v>
+        <v>82000</v>
       </c>
       <c r="I8" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="J8" s="3">
-        <v>45400</v>
+        <v>44000</v>
       </c>
       <c r="K8" s="3">
         <v>11300</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="E9" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="F9" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="G9" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="H9" s="3">
-        <v>68000</v>
+        <v>65900</v>
       </c>
       <c r="I9" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="J9" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="K9" s="3">
         <v>3200</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E10" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F10" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="G10" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="H10" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="I10" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="J10" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="K10" s="3">
         <v>8000</v>
@@ -874,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>38600</v>
+        <v>37400</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="H12" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J12" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -956,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="E17" s="3">
-        <v>63700</v>
+        <v>61700</v>
       </c>
       <c r="F17" s="3">
-        <v>99600</v>
+        <v>96500</v>
       </c>
       <c r="G17" s="3">
-        <v>69800</v>
+        <v>67600</v>
       </c>
       <c r="H17" s="3">
-        <v>109400</v>
+        <v>106100</v>
       </c>
       <c r="I17" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="J17" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="K17" s="3">
         <v>5200</v>
@@ -1093,25 +1093,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40700</v>
+        <v>-39400</v>
       </c>
       <c r="E18" s="3">
         <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>-40300</v>
+        <v>-39000</v>
       </c>
       <c r="G18" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H18" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="I18" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J18" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="K18" s="3">
         <v>6000</v>
@@ -1151,13 +1151,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>800</v>
@@ -1169,7 +1169,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1192,16 +1192,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48300</v>
+        <v>-46800</v>
       </c>
       <c r="E21" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="F21" s="3">
-        <v>-39500</v>
+        <v>-38300</v>
       </c>
       <c r="G21" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="K21" s="3">
         <v>6400</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-49100</v>
+        <v>-47600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="F23" s="3">
-        <v>-40700</v>
+        <v>-39500</v>
       </c>
       <c r="G23" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H23" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="I23" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J23" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K23" s="3">
         <v>5900</v>
@@ -1397,25 +1397,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-48700</v>
+        <v>-47200</v>
       </c>
       <c r="E26" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="F26" s="3">
-        <v>-40700</v>
+        <v>-39500</v>
       </c>
       <c r="G26" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H26" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="I26" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J26" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K26" s="3">
         <v>5400</v>
@@ -1438,25 +1438,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45200</v>
+        <v>-43800</v>
       </c>
       <c r="E27" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F27" s="3">
-        <v>-34600</v>
+        <v>-33500</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
       </c>
       <c r="H27" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="I27" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J27" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K27" s="3">
         <v>5400</v>
@@ -1643,13 +1643,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E32" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>-800</v>
@@ -1661,7 +1661,7 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -1684,25 +1684,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45200</v>
+        <v>-43800</v>
       </c>
       <c r="E33" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F33" s="3">
-        <v>-34600</v>
+        <v>-33500</v>
       </c>
       <c r="G33" s="3">
         <v>1000</v>
       </c>
       <c r="H33" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="I33" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J33" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K33" s="3">
         <v>5400</v>
@@ -1766,25 +1766,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45200</v>
+        <v>-43800</v>
       </c>
       <c r="E35" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F35" s="3">
-        <v>-34600</v>
+        <v>-33500</v>
       </c>
       <c r="G35" s="3">
         <v>1000</v>
       </c>
       <c r="H35" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="I35" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J35" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K35" s="3">
         <v>5400</v>
@@ -1887,13 +1887,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="E41" s="3">
-        <v>100300</v>
+        <v>97200</v>
       </c>
       <c r="F41" s="3">
-        <v>106900</v>
+        <v>103600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1928,13 +1928,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F42" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1969,13 +1969,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E43" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="F43" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2016,7 +2016,7 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -2051,16 +2051,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G45" s="3">
-        <v>159600</v>
+        <v>154700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2092,16 +2092,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>95200</v>
+        <v>92300</v>
       </c>
       <c r="E46" s="3">
-        <v>119700</v>
+        <v>116000</v>
       </c>
       <c r="F46" s="3">
-        <v>129000</v>
+        <v>125100</v>
       </c>
       <c r="G46" s="3">
-        <v>159600</v>
+        <v>154700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="E47" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="F47" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2174,13 +2174,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -2215,13 +2215,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="E49" s="3">
-        <v>43100</v>
+        <v>41800</v>
       </c>
       <c r="F49" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2338,16 +2338,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="E52" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="F52" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>101500</v>
+        <v>98300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2420,16 +2420,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179200</v>
+        <v>173600</v>
       </c>
       <c r="E54" s="3">
-        <v>211400</v>
+        <v>204900</v>
       </c>
       <c r="F54" s="3">
-        <v>213900</v>
+        <v>207400</v>
       </c>
       <c r="G54" s="3">
-        <v>261000</v>
+        <v>253000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2495,13 +2495,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F57" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2577,13 +2577,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E59" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="F59" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2618,13 +2618,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="E60" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="F60" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2662,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2864,16 +2864,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29700</v>
+        <v>28800</v>
       </c>
       <c r="E66" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="F66" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="G66" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -3086,13 +3086,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70200</v>
+        <v>-68000</v>
       </c>
       <c r="E72" s="3">
-        <v>-25000</v>
+        <v>-24200</v>
       </c>
       <c r="F72" s="3">
-        <v>-19300</v>
+        <v>-18700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -3250,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>149500</v>
+        <v>144900</v>
       </c>
       <c r="E76" s="3">
-        <v>179800</v>
+        <v>174200</v>
       </c>
       <c r="F76" s="3">
-        <v>179700</v>
+        <v>174200</v>
       </c>
       <c r="G76" s="3">
-        <v>231900</v>
+        <v>224800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3378,25 +3378,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45200</v>
+        <v>-43800</v>
       </c>
       <c r="E81" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F81" s="3">
-        <v>-34600</v>
+        <v>-33500</v>
       </c>
       <c r="G81" s="3">
         <v>1000</v>
       </c>
       <c r="H81" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="I81" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J81" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K81" s="3">
         <v>5400</v>
@@ -3436,7 +3436,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -3454,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3863,16 +3863,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13200</v>
+        <v>-12800</v>
       </c>
       <c r="E94" s="3">
         <v>400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="G94" s="3">
-        <v>-25000</v>
+        <v>-24200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4085,16 +4085,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="E100" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>82100</v>
+        <v>79600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4103,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
@@ -4167,16 +4167,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18900</v>
+        <v>-18400</v>
       </c>
       <c r="E102" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="F102" s="3">
         <v>-1300</v>
       </c>
       <c r="G102" s="3">
-        <v>55900</v>
+        <v>54200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -4185,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WIMI_QTR_FIN.xlsx
@@ -737,22 +737,22 @@
         <v>34200</v>
       </c>
       <c r="E8" s="3">
-        <v>59800</v>
+        <v>60000</v>
       </c>
       <c r="F8" s="3">
-        <v>57500</v>
+        <v>57600</v>
       </c>
       <c r="G8" s="3">
-        <v>71100</v>
+        <v>71300</v>
       </c>
       <c r="H8" s="3">
-        <v>82000</v>
+        <v>82200</v>
       </c>
       <c r="I8" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J8" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="K8" s="3">
         <v>11300</v>
@@ -778,22 +778,22 @@
         <v>26100</v>
       </c>
       <c r="E9" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="F9" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="G9" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="H9" s="3">
-        <v>65900</v>
+        <v>66100</v>
       </c>
       <c r="I9" s="3">
         <v>16300</v>
       </c>
       <c r="J9" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="K9" s="3">
         <v>3200</v>
@@ -834,7 +834,7 @@
         <v>7300</v>
       </c>
       <c r="J10" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="K10" s="3">
         <v>8000</v>
@@ -874,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
         <v>9600</v>
@@ -956,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73600</v>
+        <v>73800</v>
       </c>
       <c r="E17" s="3">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="F17" s="3">
-        <v>96500</v>
+        <v>96800</v>
       </c>
       <c r="G17" s="3">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="H17" s="3">
-        <v>106100</v>
+        <v>106300</v>
       </c>
       <c r="I17" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="J17" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="K17" s="3">
         <v>5200</v>
@@ -1093,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="E18" s="3">
         <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>-39000</v>
+        <v>-39100</v>
       </c>
       <c r="G18" s="3">
         <v>3500</v>
       </c>
       <c r="H18" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="I18" s="3">
         <v>2900</v>
@@ -1151,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="E20" s="3">
         <v>-3000</v>
@@ -1192,13 +1192,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46800</v>
+        <v>-46900</v>
       </c>
       <c r="E21" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="F21" s="3">
-        <v>-38300</v>
+        <v>-38400</v>
       </c>
       <c r="G21" s="3">
         <v>5700</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="K21" s="3">
         <v>6400</v>
@@ -1274,13 +1274,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-47600</v>
+        <v>-47700</v>
       </c>
       <c r="E23" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F23" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="G23" s="3">
         <v>4300</v>
@@ -1397,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-47200</v>
+        <v>-47300</v>
       </c>
       <c r="E26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F26" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="G26" s="3">
         <v>4400</v>
       </c>
       <c r="H26" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="I26" s="3">
         <v>3200</v>
@@ -1438,13 +1438,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="E27" s="3">
         <v>-5500</v>
       </c>
       <c r="F27" s="3">
-        <v>-33500</v>
+        <v>-33600</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
@@ -1643,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E32" s="3">
         <v>3000</v>
@@ -1684,13 +1684,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="E33" s="3">
         <v>-5500</v>
       </c>
       <c r="F33" s="3">
-        <v>-33500</v>
+        <v>-33600</v>
       </c>
       <c r="G33" s="3">
         <v>1000</v>
@@ -1766,13 +1766,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="E35" s="3">
         <v>-5500</v>
       </c>
       <c r="F35" s="3">
-        <v>-33500</v>
+        <v>-33600</v>
       </c>
       <c r="G35" s="3">
         <v>1000</v>
@@ -1887,13 +1887,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78900</v>
+        <v>79100</v>
       </c>
       <c r="E41" s="3">
-        <v>97200</v>
+        <v>97400</v>
       </c>
       <c r="F41" s="3">
-        <v>103600</v>
+        <v>103800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>7300</v>
       </c>
       <c r="F43" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2060,7 +2060,7 @@
         <v>4900</v>
       </c>
       <c r="G45" s="3">
-        <v>154700</v>
+        <v>155000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2092,16 +2092,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92300</v>
+        <v>92500</v>
       </c>
       <c r="E46" s="3">
-        <v>116000</v>
+        <v>116300</v>
       </c>
       <c r="F46" s="3">
-        <v>125100</v>
+        <v>125400</v>
       </c>
       <c r="G46" s="3">
-        <v>154700</v>
+        <v>155000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="E47" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="F47" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2177,7 +2177,7 @@
         <v>3500</v>
       </c>
       <c r="E48" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F48" s="3">
         <v>3900</v>
@@ -2218,10 +2218,10 @@
         <v>34500</v>
       </c>
       <c r="E49" s="3">
-        <v>41800</v>
+        <v>41900</v>
       </c>
       <c r="F49" s="3">
-        <v>42000</v>
+        <v>42100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2338,16 +2338,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="E52" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="F52" s="3">
         <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>98300</v>
+        <v>98600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2420,16 +2420,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>173600</v>
+        <v>174000</v>
       </c>
       <c r="E54" s="3">
-        <v>204900</v>
+        <v>205300</v>
       </c>
       <c r="F54" s="3">
-        <v>207400</v>
+        <v>207800</v>
       </c>
       <c r="G54" s="3">
-        <v>253000</v>
+        <v>253600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2580,7 +2580,7 @@
         <v>5700</v>
       </c>
       <c r="E59" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="F59" s="3">
         <v>4200</v>
@@ -2618,13 +2618,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E60" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="F60" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2709,7 +2709,7 @@
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2867,13 +2867,13 @@
         <v>28800</v>
       </c>
       <c r="E66" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="F66" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="G66" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -3086,10 +3086,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-68000</v>
+        <v>-68100</v>
       </c>
       <c r="E72" s="3">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="F72" s="3">
         <v>-18700</v>
@@ -3250,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>144900</v>
+        <v>145200</v>
       </c>
       <c r="E76" s="3">
-        <v>174200</v>
+        <v>174600</v>
       </c>
       <c r="F76" s="3">
-        <v>174200</v>
+        <v>174500</v>
       </c>
       <c r="G76" s="3">
-        <v>224800</v>
+        <v>225300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3378,13 +3378,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="E81" s="3">
         <v>-5500</v>
       </c>
       <c r="F81" s="3">
-        <v>-33500</v>
+        <v>-33600</v>
       </c>
       <c r="G81" s="3">
         <v>1000</v>
@@ -3682,7 +3682,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="G94" s="3">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4103,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>-1300</v>
       </c>
       <c r="G102" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
